--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.10085698568135</v>
+        <v>8.183547333333333</v>
       </c>
       <c r="H2">
-        <v>1.10085698568135</v>
+        <v>24.550642</v>
       </c>
       <c r="I2">
-        <v>0.004891734175736844</v>
+        <v>0.03093917512191418</v>
       </c>
       <c r="J2">
-        <v>0.004891734175736844</v>
+        <v>0.03093917512191417</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>36.8780198810074</v>
+        <v>0.1556706666666667</v>
       </c>
       <c r="N2">
-        <v>36.8780198810074</v>
+        <v>0.467012</v>
       </c>
       <c r="O2">
-        <v>0.3710279085721709</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="P2">
-        <v>0.3710279085721709</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="Q2">
-        <v>40.5974258041027</v>
+        <v>1.273938269078222</v>
       </c>
       <c r="R2">
-        <v>40.5974258041027</v>
+        <v>11.465444421704</v>
       </c>
       <c r="S2">
-        <v>0.001814969900514654</v>
+        <v>4.688445935950631E-05</v>
       </c>
       <c r="T2">
-        <v>0.001814969900514654</v>
+        <v>4.68844593595063E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.10085698568135</v>
+        <v>8.183547333333333</v>
       </c>
       <c r="H3">
-        <v>1.10085698568135</v>
+        <v>24.550642</v>
       </c>
       <c r="I3">
-        <v>0.004891734175736844</v>
+        <v>0.03093917512191418</v>
       </c>
       <c r="J3">
-        <v>0.004891734175736844</v>
+        <v>0.03093917512191417</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.8618500951123</v>
+        <v>37.12743</v>
       </c>
       <c r="N3">
-        <v>16.8618500951123</v>
+        <v>111.38229</v>
       </c>
       <c r="O3">
-        <v>0.1696462281769364</v>
+        <v>0.3614167567469731</v>
       </c>
       <c r="P3">
-        <v>0.1696462281769364</v>
+        <v>0.3614167567469732</v>
       </c>
       <c r="Q3">
-        <v>18.56248546871611</v>
+        <v>303.83408077002</v>
       </c>
       <c r="R3">
-        <v>18.56248546871611</v>
+        <v>2734.50672693018</v>
       </c>
       <c r="S3">
-        <v>0.0008298642521579704</v>
+        <v>0.01118193632898886</v>
       </c>
       <c r="T3">
-        <v>0.0008298642521579704</v>
+        <v>0.01118193632898886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.10085698568135</v>
+        <v>8.183547333333333</v>
       </c>
       <c r="H4">
-        <v>1.10085698568135</v>
+        <v>24.550642</v>
       </c>
       <c r="I4">
-        <v>0.004891734175736844</v>
+        <v>0.03093917512191418</v>
       </c>
       <c r="J4">
-        <v>0.004891734175736844</v>
+        <v>0.03093917512191417</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.149612862403</v>
+        <v>17.74257933333334</v>
       </c>
       <c r="N4">
-        <v>17.149612862403</v>
+        <v>53.227738</v>
       </c>
       <c r="O4">
-        <v>0.1725413949472053</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="P4">
-        <v>0.1725413949472053</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="Q4">
-        <v>18.87927112130707</v>
+        <v>145.1972377897551</v>
       </c>
       <c r="R4">
-        <v>18.87927112130707</v>
+        <v>1306.775140107796</v>
       </c>
       <c r="S4">
-        <v>0.0008440266383925527</v>
+        <v>0.005343660803275825</v>
       </c>
       <c r="T4">
-        <v>0.0008440266383925527</v>
+        <v>0.005343660803275824</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.10085698568135</v>
+        <v>8.183547333333333</v>
       </c>
       <c r="H5">
-        <v>1.10085698568135</v>
+        <v>24.550642</v>
       </c>
       <c r="I5">
-        <v>0.004891734175736844</v>
+        <v>0.03093917512191418</v>
       </c>
       <c r="J5">
-        <v>0.004891734175736844</v>
+        <v>0.03093917512191417</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.82967471352271</v>
+        <v>18.87700766666667</v>
       </c>
       <c r="N5">
-        <v>4.82967471352271</v>
+        <v>56.631023</v>
       </c>
       <c r="O5">
-        <v>0.04859111508221464</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="P5">
-        <v>0.04859111508221464</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="Q5">
-        <v>5.316781146950047</v>
+        <v>154.4808857518629</v>
       </c>
       <c r="R5">
-        <v>5.316781146950047</v>
+        <v>1390.327971766766</v>
       </c>
       <c r="S5">
-        <v>0.0002376948182848314</v>
+        <v>0.005685324780371311</v>
       </c>
       <c r="T5">
-        <v>0.0002376948182848314</v>
+        <v>0.00568532478037131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.10085698568135</v>
+        <v>8.183547333333333</v>
       </c>
       <c r="H6">
-        <v>1.10085698568135</v>
+        <v>24.550642</v>
       </c>
       <c r="I6">
-        <v>0.004891734175736844</v>
+        <v>0.03093917512191418</v>
       </c>
       <c r="J6">
-        <v>0.004891734175736844</v>
+        <v>0.03093917512191417</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.6750363319816</v>
+        <v>4.878365</v>
       </c>
       <c r="N6">
-        <v>23.6750363319816</v>
+        <v>14.635095</v>
       </c>
       <c r="O6">
-        <v>0.2381933532214729</v>
+        <v>0.04748841642225027</v>
       </c>
       <c r="P6">
-        <v>0.2381933532214729</v>
+        <v>0.04748841642225028</v>
       </c>
       <c r="Q6">
-        <v>26.06282913232171</v>
+        <v>39.92233088677666</v>
       </c>
       <c r="R6">
-        <v>26.06282913232171</v>
+        <v>359.30097798099</v>
       </c>
       <c r="S6">
-        <v>0.001165178566386837</v>
+        <v>0.001469252431950386</v>
       </c>
       <c r="T6">
-        <v>0.001165178566386837</v>
+        <v>0.001469252431950386</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>35.2664405890945</v>
+        <v>8.183547333333333</v>
       </c>
       <c r="H7">
-        <v>35.2664405890945</v>
+        <v>24.550642</v>
       </c>
       <c r="I7">
-        <v>0.1567088685725085</v>
+        <v>0.03093917512191418</v>
       </c>
       <c r="J7">
-        <v>0.1567088685725085</v>
+        <v>0.03093917512191417</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.8780198810074</v>
+        <v>23.94642</v>
       </c>
       <c r="N7">
-        <v>36.8780198810074</v>
+        <v>71.83926</v>
       </c>
       <c r="O7">
-        <v>0.3710279085721709</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="P7">
-        <v>0.3710279085721709</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="Q7">
-        <v>1300.556497176993</v>
+        <v>195.96666153388</v>
       </c>
       <c r="R7">
-        <v>1300.556497176993</v>
+        <v>1763.69995380492</v>
       </c>
       <c r="S7">
-        <v>0.05814336376116904</v>
+        <v>0.00721211631796829</v>
       </c>
       <c r="T7">
-        <v>0.05814336376116904</v>
+        <v>0.007212116317968288</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.2664405890945</v>
+        <v>39.23391266666667</v>
       </c>
       <c r="H8">
-        <v>35.2664405890945</v>
+        <v>117.701738</v>
       </c>
       <c r="I8">
-        <v>0.1567088685725085</v>
+        <v>0.1483299167547497</v>
       </c>
       <c r="J8">
-        <v>0.1567088685725085</v>
+        <v>0.1483299167547497</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>16.8618500951123</v>
+        <v>0.1556706666666667</v>
       </c>
       <c r="N8">
-        <v>16.8618500951123</v>
+        <v>0.467012</v>
       </c>
       <c r="O8">
-        <v>0.1696462281769364</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="P8">
-        <v>0.1696462281769364</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="Q8">
-        <v>594.6574346014953</v>
+        <v>6.107569340761779</v>
       </c>
       <c r="R8">
-        <v>594.6574346014953</v>
+        <v>54.96812406685601</v>
       </c>
       <c r="S8">
-        <v>0.02658506847520132</v>
+        <v>0.0002247754804865901</v>
       </c>
       <c r="T8">
-        <v>0.02658506847520132</v>
+        <v>0.0002247754804865901</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.2664405890945</v>
+        <v>39.23391266666667</v>
       </c>
       <c r="H9">
-        <v>35.2664405890945</v>
+        <v>117.701738</v>
       </c>
       <c r="I9">
-        <v>0.1567088685725085</v>
+        <v>0.1483299167547497</v>
       </c>
       <c r="J9">
-        <v>0.1567088685725085</v>
+        <v>0.1483299167547497</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.149612862403</v>
+        <v>37.12743</v>
       </c>
       <c r="N9">
-        <v>17.149612862403</v>
+        <v>111.38229</v>
       </c>
       <c r="O9">
-        <v>0.1725413949472053</v>
+        <v>0.3614167567469731</v>
       </c>
       <c r="P9">
-        <v>0.1725413949472053</v>
+        <v>0.3614167567469732</v>
       </c>
       <c r="Q9">
-        <v>604.8058031379063</v>
+        <v>1456.65434615778</v>
       </c>
       <c r="R9">
-        <v>604.8058031379063</v>
+        <v>13109.88911542002</v>
       </c>
       <c r="S9">
-        <v>0.02703876678409889</v>
+        <v>0.05360891744205012</v>
       </c>
       <c r="T9">
-        <v>0.02703876678409889</v>
+        <v>0.05360891744205013</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.2664405890945</v>
+        <v>39.23391266666667</v>
       </c>
       <c r="H10">
-        <v>35.2664405890945</v>
+        <v>117.701738</v>
       </c>
       <c r="I10">
-        <v>0.1567088685725085</v>
+        <v>0.1483299167547497</v>
       </c>
       <c r="J10">
-        <v>0.1567088685725085</v>
+        <v>0.1483299167547497</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.82967471352271</v>
+        <v>17.74257933333334</v>
       </c>
       <c r="N10">
-        <v>4.82967471352271</v>
+        <v>53.227738</v>
       </c>
       <c r="O10">
-        <v>0.04859111508221464</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="P10">
-        <v>0.04859111508221464</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="Q10">
-        <v>170.3254363491006</v>
+        <v>696.110808045405</v>
       </c>
       <c r="R10">
-        <v>170.3254363491006</v>
+        <v>6264.997272408645</v>
       </c>
       <c r="S10">
-        <v>0.007614658667210411</v>
+        <v>0.02561880719160178</v>
       </c>
       <c r="T10">
-        <v>0.007614658667210411</v>
+        <v>0.02561880719160178</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.2664405890945</v>
+        <v>39.23391266666667</v>
       </c>
       <c r="H11">
-        <v>35.2664405890945</v>
+        <v>117.701738</v>
       </c>
       <c r="I11">
-        <v>0.1567088685725085</v>
+        <v>0.1483299167547497</v>
       </c>
       <c r="J11">
-        <v>0.1567088685725085</v>
+        <v>0.1483299167547497</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.6750363319816</v>
+        <v>18.87700766666667</v>
       </c>
       <c r="N11">
-        <v>23.6750363319816</v>
+        <v>56.631023</v>
       </c>
       <c r="O11">
-        <v>0.2381933532214729</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="P11">
-        <v>0.2381933532214729</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="Q11">
-        <v>834.9342622464829</v>
+        <v>740.6188702019972</v>
       </c>
       <c r="R11">
-        <v>834.9342622464829</v>
+        <v>6665.569831817974</v>
       </c>
       <c r="S11">
-        <v>0.0373270108848289</v>
+        <v>0.02725682724485053</v>
       </c>
       <c r="T11">
-        <v>0.0373270108848289</v>
+        <v>0.02725682724485053</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>73.8001592929279</v>
+        <v>39.23391266666667</v>
       </c>
       <c r="H12">
-        <v>73.8001592929279</v>
+        <v>117.701738</v>
       </c>
       <c r="I12">
-        <v>0.3279361134858033</v>
+        <v>0.1483299167547497</v>
       </c>
       <c r="J12">
-        <v>0.3279361134858033</v>
+        <v>0.1483299167547497</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.8780198810074</v>
+        <v>4.878365</v>
       </c>
       <c r="N12">
-        <v>36.8780198810074</v>
+        <v>14.635095</v>
       </c>
       <c r="O12">
-        <v>0.3710279085721709</v>
+        <v>0.04748841642225027</v>
       </c>
       <c r="P12">
-        <v>0.3710279085721709</v>
+        <v>0.04748841642225028</v>
       </c>
       <c r="Q12">
-        <v>2721.603741626108</v>
+        <v>191.3973463661233</v>
       </c>
       <c r="R12">
-        <v>2721.603741626108</v>
+        <v>1722.57611729511</v>
       </c>
       <c r="S12">
-        <v>0.1216734503319237</v>
+        <v>0.00704395285472727</v>
       </c>
       <c r="T12">
-        <v>0.1216734503319237</v>
+        <v>0.007043952854727271</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>73.8001592929279</v>
+        <v>39.23391266666667</v>
       </c>
       <c r="H13">
-        <v>73.8001592929279</v>
+        <v>117.701738</v>
       </c>
       <c r="I13">
-        <v>0.3279361134858033</v>
+        <v>0.1483299167547497</v>
       </c>
       <c r="J13">
-        <v>0.3279361134858033</v>
+        <v>0.1483299167547497</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.8618500951123</v>
+        <v>23.94642</v>
       </c>
       <c r="N13">
-        <v>16.8618500951123</v>
+        <v>71.83926</v>
       </c>
       <c r="O13">
-        <v>0.1696462281769364</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="P13">
-        <v>0.1696462281769364</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="Q13">
-        <v>1244.407222992759</v>
+        <v>939.51175095932</v>
       </c>
       <c r="R13">
-        <v>1244.407222992759</v>
+        <v>8455.605758633879</v>
       </c>
       <c r="S13">
-        <v>0.05563312473587029</v>
+        <v>0.03457663654103336</v>
       </c>
       <c r="T13">
-        <v>0.05563312473587029</v>
+        <v>0.03457663654103336</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>73.8001592929279</v>
+        <v>99.30192733333332</v>
       </c>
       <c r="H14">
-        <v>73.8001592929279</v>
+        <v>297.905782</v>
       </c>
       <c r="I14">
-        <v>0.3279361134858033</v>
+        <v>0.3754264006264597</v>
       </c>
       <c r="J14">
-        <v>0.3279361134858033</v>
+        <v>0.3754264006264597</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>17.149612862403</v>
+        <v>0.1556706666666667</v>
       </c>
       <c r="N14">
-        <v>17.149612862403</v>
+        <v>0.467012</v>
       </c>
       <c r="O14">
-        <v>0.1725413949472053</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="P14">
-        <v>0.1725413949472053</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="Q14">
-        <v>1265.644161057387</v>
+        <v>15.45839722926489</v>
       </c>
       <c r="R14">
-        <v>1265.644161057387</v>
+        <v>139.125575063384</v>
       </c>
       <c r="S14">
-        <v>0.05658255447440553</v>
+        <v>0.0005689118650803896</v>
       </c>
       <c r="T14">
-        <v>0.05658255447440553</v>
+        <v>0.0005689118650803896</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>73.8001592929279</v>
+        <v>99.30192733333332</v>
       </c>
       <c r="H15">
-        <v>73.8001592929279</v>
+        <v>297.905782</v>
       </c>
       <c r="I15">
-        <v>0.3279361134858033</v>
+        <v>0.3754264006264597</v>
       </c>
       <c r="J15">
-        <v>0.3279361134858033</v>
+        <v>0.3754264006264597</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.82967471352271</v>
+        <v>37.12743</v>
       </c>
       <c r="N15">
-        <v>4.82967471352271</v>
+        <v>111.38229</v>
       </c>
       <c r="O15">
-        <v>0.04859111508221464</v>
+        <v>0.3614167567469731</v>
       </c>
       <c r="P15">
-        <v>0.04859111508221464</v>
+        <v>0.3614167567469732</v>
       </c>
       <c r="Q15">
-        <v>356.4307631910019</v>
+        <v>3686.825355933419</v>
       </c>
       <c r="R15">
-        <v>356.4307631910019</v>
+        <v>33181.42820340078</v>
       </c>
       <c r="S15">
-        <v>0.01593478143000287</v>
+        <v>0.1356853921116049</v>
       </c>
       <c r="T15">
-        <v>0.01593478143000287</v>
+        <v>0.1356853921116049</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>73.8001592929279</v>
+        <v>99.30192733333332</v>
       </c>
       <c r="H16">
-        <v>73.8001592929279</v>
+        <v>297.905782</v>
       </c>
       <c r="I16">
-        <v>0.3279361134858033</v>
+        <v>0.3754264006264597</v>
       </c>
       <c r="J16">
-        <v>0.3279361134858033</v>
+        <v>0.3754264006264597</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.6750363319816</v>
+        <v>17.74257933333334</v>
       </c>
       <c r="N16">
-        <v>23.6750363319816</v>
+        <v>53.227738</v>
       </c>
       <c r="O16">
-        <v>0.2381933532214729</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="P16">
-        <v>0.2381933532214729</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="Q16">
-        <v>1747.221452566098</v>
+        <v>1761.872323664569</v>
       </c>
       <c r="R16">
-        <v>1747.221452566098</v>
+        <v>15856.85091298112</v>
       </c>
       <c r="S16">
-        <v>0.07811220251360096</v>
+        <v>0.06484178500678853</v>
       </c>
       <c r="T16">
-        <v>0.07811220251360096</v>
+        <v>0.06484178500678853</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>71.2668465961022</v>
+        <v>99.30192733333332</v>
       </c>
       <c r="H17">
-        <v>71.2668465961022</v>
+        <v>297.905782</v>
       </c>
       <c r="I17">
-        <v>0.3166791632569592</v>
+        <v>0.3754264006264597</v>
       </c>
       <c r="J17">
-        <v>0.3166791632569592</v>
+        <v>0.3754264006264597</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>36.8780198810074</v>
+        <v>18.87700766666667</v>
       </c>
       <c r="N17">
-        <v>36.8780198810074</v>
+        <v>56.631023</v>
       </c>
       <c r="O17">
-        <v>0.3710279085721709</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="P17">
-        <v>0.3710279085721709</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="Q17">
-        <v>2628.180185627761</v>
+        <v>1874.523243586109</v>
       </c>
       <c r="R17">
-        <v>2628.180185627761</v>
+        <v>16870.70919227499</v>
       </c>
       <c r="S17">
-        <v>0.1174968076316146</v>
+        <v>0.06898765110177134</v>
       </c>
       <c r="T17">
-        <v>0.1174968076316146</v>
+        <v>0.06898765110177132</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>71.2668465961022</v>
+        <v>99.30192733333332</v>
       </c>
       <c r="H18">
-        <v>71.2668465961022</v>
+        <v>297.905782</v>
       </c>
       <c r="I18">
-        <v>0.3166791632569592</v>
+        <v>0.3754264006264597</v>
       </c>
       <c r="J18">
-        <v>0.3166791632569592</v>
+        <v>0.3754264006264597</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.8618500951123</v>
+        <v>4.878365</v>
       </c>
       <c r="N18">
-        <v>16.8618500951123</v>
+        <v>14.635095</v>
       </c>
       <c r="O18">
-        <v>0.1696462281769364</v>
+        <v>0.04748841642225027</v>
       </c>
       <c r="P18">
-        <v>0.1696462281769364</v>
+        <v>0.04748841642225028</v>
       </c>
       <c r="Q18">
-        <v>1201.690884054839</v>
+        <v>484.4310467354766</v>
       </c>
       <c r="R18">
-        <v>1201.690884054839</v>
+        <v>4359.87942061929</v>
       </c>
       <c r="S18">
-        <v>0.05372342558877138</v>
+        <v>0.01782840524885588</v>
       </c>
       <c r="T18">
-        <v>0.05372342558877138</v>
+        <v>0.01782840524885588</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>71.2668465961022</v>
+        <v>99.30192733333332</v>
       </c>
       <c r="H19">
-        <v>71.2668465961022</v>
+        <v>297.905782</v>
       </c>
       <c r="I19">
-        <v>0.3166791632569592</v>
+        <v>0.3754264006264597</v>
       </c>
       <c r="J19">
-        <v>0.3166791632569592</v>
+        <v>0.3754264006264597</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.149612862403</v>
+        <v>23.94642</v>
       </c>
       <c r="N19">
-        <v>17.149612862403</v>
+        <v>71.83926</v>
       </c>
       <c r="O19">
-        <v>0.1725413949472053</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="P19">
-        <v>0.1725413949472053</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="Q19">
-        <v>1222.198829047416</v>
+        <v>2377.92565873348</v>
       </c>
       <c r="R19">
-        <v>1222.198829047416</v>
+        <v>21401.33092860132</v>
       </c>
       <c r="S19">
-        <v>0.05464026457906949</v>
+        <v>0.08751425529235871</v>
       </c>
       <c r="T19">
-        <v>0.05464026457906949</v>
+        <v>0.08751425529235869</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>71.2668465961022</v>
+        <v>71.499621</v>
       </c>
       <c r="H20">
-        <v>71.2668465961022</v>
+        <v>214.498863</v>
       </c>
       <c r="I20">
-        <v>0.3166791632569592</v>
+        <v>0.2703154518651071</v>
       </c>
       <c r="J20">
-        <v>0.3166791632569592</v>
+        <v>0.2703154518651071</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>4.82967471352271</v>
+        <v>0.1556706666666667</v>
       </c>
       <c r="N20">
-        <v>4.82967471352271</v>
+        <v>0.467012</v>
       </c>
       <c r="O20">
-        <v>0.04859111508221464</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="P20">
-        <v>0.04859111508221464</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="Q20">
-        <v>344.1956869176968</v>
+        <v>11.130393667484</v>
       </c>
       <c r="R20">
-        <v>344.1956869176968</v>
+        <v>100.173543007356</v>
       </c>
       <c r="S20">
-        <v>0.01538779366595834</v>
+        <v>0.0004096293377983277</v>
       </c>
       <c r="T20">
-        <v>0.01538779366595834</v>
+        <v>0.0004096293377983277</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>71.2668465961022</v>
+        <v>71.499621</v>
       </c>
       <c r="H21">
-        <v>71.2668465961022</v>
+        <v>214.498863</v>
       </c>
       <c r="I21">
-        <v>0.3166791632569592</v>
+        <v>0.2703154518651071</v>
       </c>
       <c r="J21">
-        <v>0.3166791632569592</v>
+        <v>0.2703154518651071</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.6750363319816</v>
+        <v>37.12743</v>
       </c>
       <c r="N21">
-        <v>23.6750363319816</v>
+        <v>111.38229</v>
       </c>
       <c r="O21">
-        <v>0.2381933532214729</v>
+        <v>0.3614167567469731</v>
       </c>
       <c r="P21">
-        <v>0.2381933532214729</v>
+        <v>0.3614167567469732</v>
       </c>
       <c r="Q21">
-        <v>1687.245182428479</v>
+        <v>2654.59717370403</v>
       </c>
       <c r="R21">
-        <v>1687.245182428479</v>
+        <v>23891.37456333627</v>
       </c>
       <c r="S21">
-        <v>0.07543087179154534</v>
+        <v>0.09769653391167954</v>
       </c>
       <c r="T21">
-        <v>0.07543087179154534</v>
+        <v>0.09769653391167954</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.0496337714913</v>
+        <v>71.499621</v>
       </c>
       <c r="H22">
-        <v>34.0496337714913</v>
+        <v>214.498863</v>
       </c>
       <c r="I22">
-        <v>0.1513019032969463</v>
+        <v>0.2703154518651071</v>
       </c>
       <c r="J22">
-        <v>0.1513019032969463</v>
+        <v>0.2703154518651071</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>36.8780198810074</v>
+        <v>17.74257933333334</v>
       </c>
       <c r="N22">
-        <v>36.8780198810074</v>
+        <v>53.227738</v>
       </c>
       <c r="O22">
-        <v>0.3710279085721709</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="P22">
-        <v>0.3710279085721709</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="Q22">
-        <v>1255.683071166077</v>
+        <v>1268.587697895766</v>
       </c>
       <c r="R22">
-        <v>1255.683071166077</v>
+        <v>11417.28928106189</v>
       </c>
       <c r="S22">
-        <v>0.05613722874325484</v>
+        <v>0.04668754350946632</v>
       </c>
       <c r="T22">
-        <v>0.05613722874325484</v>
+        <v>0.04668754350946631</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.0496337714913</v>
+        <v>71.499621</v>
       </c>
       <c r="H23">
-        <v>34.0496337714913</v>
+        <v>214.498863</v>
       </c>
       <c r="I23">
-        <v>0.1513019032969463</v>
+        <v>0.2703154518651071</v>
       </c>
       <c r="J23">
-        <v>0.1513019032969463</v>
+        <v>0.2703154518651071</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.8618500951123</v>
+        <v>18.87700766666667</v>
       </c>
       <c r="N23">
-        <v>16.8618500951123</v>
+        <v>56.631023</v>
       </c>
       <c r="O23">
-        <v>0.1696462281769364</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="P23">
-        <v>0.1696462281769364</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="Q23">
-        <v>574.1398204483595</v>
+        <v>1349.698893780761</v>
       </c>
       <c r="R23">
-        <v>574.1398204483595</v>
+        <v>12147.29004402685</v>
       </c>
       <c r="S23">
-        <v>0.02566779721031852</v>
+        <v>0.04967266033920299</v>
       </c>
       <c r="T23">
-        <v>0.02566779721031852</v>
+        <v>0.04967266033920297</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.0496337714913</v>
+        <v>71.499621</v>
       </c>
       <c r="H24">
-        <v>34.0496337714913</v>
+        <v>214.498863</v>
       </c>
       <c r="I24">
-        <v>0.1513019032969463</v>
+        <v>0.2703154518651071</v>
       </c>
       <c r="J24">
-        <v>0.1513019032969463</v>
+        <v>0.2703154518651071</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>17.149612862403</v>
+        <v>4.878365</v>
       </c>
       <c r="N24">
-        <v>17.149612862403</v>
+        <v>14.635095</v>
       </c>
       <c r="O24">
-        <v>0.1725413949472053</v>
+        <v>0.04748841642225027</v>
       </c>
       <c r="P24">
-        <v>0.1725413949472053</v>
+        <v>0.04748841642225028</v>
       </c>
       <c r="Q24">
-        <v>583.9380372876788</v>
+        <v>348.801248599665</v>
       </c>
       <c r="R24">
-        <v>583.9380372876788</v>
+        <v>3139.211237396985</v>
       </c>
       <c r="S24">
-        <v>0.02610584145302228</v>
+        <v>0.01283685274353896</v>
       </c>
       <c r="T24">
-        <v>0.02610584145302228</v>
+        <v>0.01283685274353896</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.0496337714913</v>
+        <v>71.499621</v>
       </c>
       <c r="H25">
-        <v>34.0496337714913</v>
+        <v>214.498863</v>
       </c>
       <c r="I25">
-        <v>0.1513019032969463</v>
+        <v>0.2703154518651071</v>
       </c>
       <c r="J25">
-        <v>0.1513019032969463</v>
+        <v>0.2703154518651071</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.82967471352271</v>
+        <v>23.94642</v>
       </c>
       <c r="N25">
-        <v>4.82967471352271</v>
+        <v>71.83926</v>
       </c>
       <c r="O25">
-        <v>0.04859111508221464</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="P25">
-        <v>0.04859111508221464</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="Q25">
-        <v>164.4486552308804</v>
+        <v>1712.15995430682</v>
       </c>
       <c r="R25">
-        <v>164.4486552308804</v>
+        <v>15409.43958876138</v>
       </c>
       <c r="S25">
-        <v>0.007351928195260028</v>
+        <v>0.063012232023421</v>
       </c>
       <c r="T25">
-        <v>0.007351928195260028</v>
+        <v>0.06301223202342099</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.0496337714913</v>
+        <v>34.08558533333333</v>
       </c>
       <c r="H26">
-        <v>34.0496337714913</v>
+        <v>102.256756</v>
       </c>
       <c r="I26">
-        <v>0.1513019032969463</v>
+        <v>0.1288658635192859</v>
       </c>
       <c r="J26">
-        <v>0.1513019032969463</v>
+        <v>0.1288658635192859</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>23.6750363319816</v>
+        <v>0.1556706666666667</v>
       </c>
       <c r="N26">
-        <v>23.6750363319816</v>
+        <v>0.467012</v>
       </c>
       <c r="O26">
-        <v>0.2381933532214729</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="P26">
-        <v>0.2381933532214729</v>
+        <v>0.00151537522169743</v>
       </c>
       <c r="Q26">
-        <v>806.1263166307243</v>
+        <v>5.306125792563556</v>
       </c>
       <c r="R26">
-        <v>806.1263166307243</v>
+        <v>47.75513213307201</v>
       </c>
       <c r="S26">
-        <v>0.03603910769509067</v>
+        <v>0.0001952801364997686</v>
       </c>
       <c r="T26">
-        <v>0.03603910769509067</v>
+        <v>0.0001952801364997686</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2087,57 +2087,57 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.56038163665519</v>
+        <v>34.08558533333333</v>
       </c>
       <c r="H27">
-        <v>9.56038163665519</v>
+        <v>102.256756</v>
       </c>
       <c r="I27">
-        <v>0.04248221721204584</v>
+        <v>0.1288658635192859</v>
       </c>
       <c r="J27">
-        <v>0.04248221721204584</v>
+        <v>0.1288658635192859</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>36.8780198810074</v>
+        <v>37.12743</v>
       </c>
       <c r="N27">
-        <v>36.8780198810074</v>
+        <v>111.38229</v>
       </c>
       <c r="O27">
-        <v>0.3710279085721709</v>
+        <v>0.3614167567469731</v>
       </c>
       <c r="P27">
-        <v>0.3710279085721709</v>
+        <v>0.3614167567469732</v>
       </c>
       <c r="Q27">
-        <v>352.5679440665882</v>
+        <v>1265.51018347236</v>
       </c>
       <c r="R27">
-        <v>352.5679440665882</v>
+        <v>11389.59165125124</v>
       </c>
       <c r="S27">
-        <v>0.01576208820369405</v>
+        <v>0.0465742824485384</v>
       </c>
       <c r="T27">
-        <v>0.01576208820369405</v>
+        <v>0.04657428244853839</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.56038163665519</v>
+        <v>34.08558533333333</v>
       </c>
       <c r="H28">
-        <v>9.56038163665519</v>
+        <v>102.256756</v>
       </c>
       <c r="I28">
-        <v>0.04248221721204584</v>
+        <v>0.1288658635192859</v>
       </c>
       <c r="J28">
-        <v>0.04248221721204584</v>
+        <v>0.1288658635192859</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>16.8618500951123</v>
+        <v>17.74257933333334</v>
       </c>
       <c r="N28">
-        <v>16.8618500951123</v>
+        <v>53.227738</v>
       </c>
       <c r="O28">
-        <v>0.1696462281769364</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="P28">
-        <v>0.1696462281769364</v>
+        <v>0.1727150378838289</v>
       </c>
       <c r="Q28">
-        <v>161.2057220093442</v>
+        <v>604.7662018997698</v>
       </c>
       <c r="R28">
-        <v>161.2057220093442</v>
+        <v>5442.895817097929</v>
       </c>
       <c r="S28">
-        <v>0.007206947914616902</v>
+        <v>0.0222570724996658</v>
       </c>
       <c r="T28">
-        <v>0.007206947914616902</v>
+        <v>0.02225707249966579</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.56038163665519</v>
+        <v>34.08558533333333</v>
       </c>
       <c r="H29">
-        <v>9.56038163665519</v>
+        <v>102.256756</v>
       </c>
       <c r="I29">
-        <v>0.04248221721204584</v>
+        <v>0.1288658635192859</v>
       </c>
       <c r="J29">
-        <v>0.04248221721204584</v>
+        <v>0.1288658635192859</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>17.149612862403</v>
+        <v>18.87700766666667</v>
       </c>
       <c r="N29">
-        <v>17.149612862403</v>
+        <v>56.631023</v>
       </c>
       <c r="O29">
-        <v>0.1725413949472053</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="P29">
-        <v>0.1725413949472053</v>
+        <v>0.1837581240601467</v>
       </c>
       <c r="Q29">
-        <v>163.9568438854633</v>
+        <v>643.4338556601542</v>
       </c>
       <c r="R29">
-        <v>163.9568438854633</v>
+        <v>5790.904700941389</v>
       </c>
       <c r="S29">
-        <v>0.007329941018216564</v>
+        <v>0.02368014933569488</v>
       </c>
       <c r="T29">
-        <v>0.007329941018216564</v>
+        <v>0.02368014933569488</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.56038163665519</v>
+        <v>34.08558533333333</v>
       </c>
       <c r="H30">
-        <v>9.56038163665519</v>
+        <v>102.256756</v>
       </c>
       <c r="I30">
-        <v>0.04248221721204584</v>
+        <v>0.1288658635192859</v>
       </c>
       <c r="J30">
-        <v>0.04248221721204584</v>
+        <v>0.1288658635192859</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.82967471352271</v>
+        <v>4.878365</v>
       </c>
       <c r="N30">
-        <v>4.82967471352271</v>
+        <v>14.635095</v>
       </c>
       <c r="O30">
-        <v>0.04859111508221464</v>
+        <v>0.04748841642225027</v>
       </c>
       <c r="P30">
-        <v>0.04859111508221464</v>
+        <v>0.04748841642225028</v>
       </c>
       <c r="Q30">
-        <v>46.17353344218044</v>
+        <v>166.2819264946467</v>
       </c>
       <c r="R30">
-        <v>46.17353344218044</v>
+        <v>1496.53733845182</v>
       </c>
       <c r="S30">
-        <v>0.002064258305498159</v>
+        <v>0.00611963578941672</v>
       </c>
       <c r="T30">
-        <v>0.002064258305498159</v>
+        <v>0.006119635789416719</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.56038163665519</v>
+        <v>34.08558533333333</v>
       </c>
       <c r="H31">
-        <v>9.56038163665519</v>
+        <v>102.256756</v>
       </c>
       <c r="I31">
-        <v>0.04248221721204584</v>
+        <v>0.1288658635192859</v>
       </c>
       <c r="J31">
-        <v>0.04248221721204584</v>
+        <v>0.1288658635192859</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>23.6750363319816</v>
+        <v>23.94642</v>
       </c>
       <c r="N31">
-        <v>23.6750363319816</v>
+        <v>71.83926</v>
       </c>
       <c r="O31">
-        <v>0.2381933532214729</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="P31">
-        <v>0.2381933532214729</v>
+        <v>0.2331062896651035</v>
       </c>
       <c r="Q31">
-        <v>226.3423825954214</v>
+        <v>816.22774233784</v>
       </c>
       <c r="R31">
-        <v>226.3423825954214</v>
+        <v>7346.04968104056</v>
       </c>
       <c r="S31">
-        <v>0.01011898177002017</v>
+        <v>0.03003944330947035</v>
       </c>
       <c r="T31">
-        <v>0.01011898177002017</v>
+        <v>0.03003944330947035</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>12.19978633333333</v>
+      </c>
+      <c r="H32">
+        <v>36.59935899999999</v>
+      </c>
+      <c r="I32">
+        <v>0.04612319211248347</v>
+      </c>
+      <c r="J32">
+        <v>0.04612319211248347</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.1556706666666667</v>
+      </c>
+      <c r="N32">
+        <v>0.467012</v>
+      </c>
+      <c r="O32">
+        <v>0.00151537522169743</v>
+      </c>
+      <c r="P32">
+        <v>0.00151537522169743</v>
+      </c>
+      <c r="Q32">
+        <v>1.899148871700889</v>
+      </c>
+      <c r="R32">
+        <v>17.092339845308</v>
+      </c>
+      <c r="S32">
+        <v>6.98939424728478E-05</v>
+      </c>
+      <c r="T32">
+        <v>6.98939424728478E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>12.19978633333333</v>
+      </c>
+      <c r="H33">
+        <v>36.59935899999999</v>
+      </c>
+      <c r="I33">
+        <v>0.04612319211248347</v>
+      </c>
+      <c r="J33">
+        <v>0.04612319211248347</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>37.12743</v>
+      </c>
+      <c r="N33">
+        <v>111.38229</v>
+      </c>
+      <c r="O33">
+        <v>0.3614167567469731</v>
+      </c>
+      <c r="P33">
+        <v>0.3614167567469732</v>
+      </c>
+      <c r="Q33">
+        <v>452.9467131057899</v>
+      </c>
+      <c r="R33">
+        <v>4076.520417952109</v>
+      </c>
+      <c r="S33">
+        <v>0.01666969450411135</v>
+      </c>
+      <c r="T33">
+        <v>0.01666969450411135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>12.19978633333333</v>
+      </c>
+      <c r="H34">
+        <v>36.59935899999999</v>
+      </c>
+      <c r="I34">
+        <v>0.04612319211248347</v>
+      </c>
+      <c r="J34">
+        <v>0.04612319211248347</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>17.74257933333334</v>
+      </c>
+      <c r="N34">
+        <v>53.227738</v>
+      </c>
+      <c r="O34">
+        <v>0.1727150378838289</v>
+      </c>
+      <c r="P34">
+        <v>0.1727150378838289</v>
+      </c>
+      <c r="Q34">
+        <v>216.4556768688824</v>
+      </c>
+      <c r="R34">
+        <v>1948.101091819942</v>
+      </c>
+      <c r="S34">
+        <v>0.007966168873030704</v>
+      </c>
+      <c r="T34">
+        <v>0.007966168873030702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>12.19978633333333</v>
+      </c>
+      <c r="H35">
+        <v>36.59935899999999</v>
+      </c>
+      <c r="I35">
+        <v>0.04612319211248347</v>
+      </c>
+      <c r="J35">
+        <v>0.04612319211248347</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>18.87700766666667</v>
+      </c>
+      <c r="N35">
+        <v>56.631023</v>
+      </c>
+      <c r="O35">
+        <v>0.1837581240601467</v>
+      </c>
+      <c r="P35">
+        <v>0.1837581240601467</v>
+      </c>
+      <c r="Q35">
+        <v>230.2954601460285</v>
+      </c>
+      <c r="R35">
+        <v>2072.659141314256</v>
+      </c>
+      <c r="S35">
+        <v>0.00847551125825572</v>
+      </c>
+      <c r="T35">
+        <v>0.008475511258255719</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>12.19978633333333</v>
+      </c>
+      <c r="H36">
+        <v>36.59935899999999</v>
+      </c>
+      <c r="I36">
+        <v>0.04612319211248347</v>
+      </c>
+      <c r="J36">
+        <v>0.04612319211248347</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>4.878365</v>
+      </c>
+      <c r="N36">
+        <v>14.635095</v>
+      </c>
+      <c r="O36">
+        <v>0.04748841642225027</v>
+      </c>
+      <c r="P36">
+        <v>0.04748841642225028</v>
+      </c>
+      <c r="Q36">
+        <v>59.51501065601165</v>
+      </c>
+      <c r="R36">
+        <v>535.6350959041049</v>
+      </c>
+      <c r="S36">
+        <v>0.002190317353761064</v>
+      </c>
+      <c r="T36">
+        <v>0.002190317353761064</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>12.19978633333333</v>
+      </c>
+      <c r="H37">
+        <v>36.59935899999999</v>
+      </c>
+      <c r="I37">
+        <v>0.04612319211248347</v>
+      </c>
+      <c r="J37">
+        <v>0.04612319211248347</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>23.94642</v>
+      </c>
+      <c r="N37">
+        <v>71.83926</v>
+      </c>
+      <c r="O37">
+        <v>0.2331062896651035</v>
+      </c>
+      <c r="P37">
+        <v>0.2331062896651035</v>
+      </c>
+      <c r="Q37">
+        <v>292.1412074482599</v>
+      </c>
+      <c r="R37">
+        <v>2629.27086703434</v>
+      </c>
+      <c r="S37">
+        <v>0.01075160618085179</v>
+      </c>
+      <c r="T37">
+        <v>0.01075160618085179</v>
       </c>
     </row>
   </sheetData>
